--- a/Code/Results/Cases/Case_0_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_87/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1452609675838801</v>
+        <v>0.04976167759201644</v>
       </c>
       <c r="D2">
-        <v>0.06585770204333841</v>
+        <v>0.02354875200813211</v>
       </c>
       <c r="E2">
-        <v>0.1652392103406513</v>
+        <v>0.1064597284362492</v>
       </c>
       <c r="F2">
-        <v>0.3119079231524253</v>
+        <v>0.4444044161742013</v>
       </c>
       <c r="G2">
-        <v>0.2074187305155704</v>
+        <v>0.2896642802316904</v>
       </c>
       <c r="H2">
-        <v>0.1773948207007052</v>
+        <v>0.4621988561487242</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.669488147537777</v>
+        <v>1.185113622351707</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.070234148630071</v>
+        <v>0.3745258566448868</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7621124553515557</v>
+        <v>1.429091374701287</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1257753370021817</v>
+        <v>0.04416796813832491</v>
       </c>
       <c r="D3">
-        <v>0.05806563978657664</v>
+        <v>0.02094628914163366</v>
       </c>
       <c r="E3">
-        <v>0.1447809526740542</v>
+        <v>0.1030373694395337</v>
       </c>
       <c r="F3">
-        <v>0.2895126482876833</v>
+        <v>0.4453197449422888</v>
       </c>
       <c r="G3">
-        <v>0.1931655082277715</v>
+        <v>0.2917212057711183</v>
       </c>
       <c r="H3">
-        <v>0.1778771314031076</v>
+        <v>0.4677580831142123</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.207965768436623</v>
+        <v>1.034403058535588</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9282422388873144</v>
+        <v>0.3320957871796466</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7324858695472471</v>
+        <v>1.444796239223365</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1139060607890059</v>
+        <v>0.04074669862028202</v>
       </c>
       <c r="D4">
-        <v>0.05327490848304706</v>
+        <v>0.01934040412479732</v>
       </c>
       <c r="E4">
-        <v>0.1327721013987961</v>
+        <v>0.1010777977424908</v>
       </c>
       <c r="F4">
-        <v>0.2768456157306503</v>
+        <v>0.446329959083954</v>
       </c>
       <c r="G4">
-        <v>0.1854497333933551</v>
+        <v>0.2933611242527974</v>
       </c>
       <c r="H4">
-        <v>0.1788095867124184</v>
+        <v>0.471497971049935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.924583528666773</v>
+        <v>0.9414913515508374</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8414873170004782</v>
+        <v>0.3060529549820217</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.717812843371334</v>
+        <v>1.455911708282727</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1090898483418528</v>
+        <v>0.03935584826531624</v>
       </c>
       <c r="D5">
-        <v>0.0513206150861123</v>
+        <v>0.01868403836257215</v>
       </c>
       <c r="E5">
-        <v>0.1280042740916123</v>
+        <v>0.1003145679918411</v>
       </c>
       <c r="F5">
-        <v>0.271938472862395</v>
+        <v>0.4468540151482401</v>
       </c>
       <c r="G5">
-        <v>0.1825480867911793</v>
+        <v>0.2941237627368096</v>
       </c>
       <c r="H5">
-        <v>0.1793415776830685</v>
+        <v>0.4731039981795462</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.80906675760707</v>
+        <v>0.9035373628456966</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8062206578854685</v>
+        <v>0.2954429059795203</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7126634295211147</v>
+        <v>1.460810506897573</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1082912726253085</v>
+        <v>0.03912510072476039</v>
       </c>
       <c r="D6">
-        <v>0.05099597160666747</v>
+        <v>0.01857493268487787</v>
       </c>
       <c r="E6">
-        <v>0.1272198155595632</v>
+        <v>0.1001899571268901</v>
       </c>
       <c r="F6">
-        <v>0.2711385315267094</v>
+        <v>0.4469478127425859</v>
       </c>
       <c r="G6">
-        <v>0.1820804179417692</v>
+        <v>0.2942560846409634</v>
       </c>
       <c r="H6">
-        <v>0.1794388692004176</v>
+        <v>0.4733756267139455</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.78988213235786</v>
+        <v>0.897229667827105</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8003692994807778</v>
+        <v>0.2936812810339191</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7118569571163817</v>
+        <v>1.461646211027173</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1138410283963083</v>
+        <v>0.04072792757982313</v>
       </c>
       <c r="D7">
-        <v>0.05324856096554242</v>
+        <v>0.01933155999722658</v>
       </c>
       <c r="E7">
-        <v>0.1327073078396381</v>
+        <v>0.1010673620303848</v>
       </c>
       <c r="F7">
-        <v>0.2767784275057963</v>
+        <v>0.4463365720650572</v>
       </c>
       <c r="G7">
-        <v>0.1854096414487785</v>
+        <v>0.2933710279812658</v>
       </c>
       <c r="H7">
-        <v>0.1788161561241992</v>
+        <v>0.4715192986547478</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.92302581978177</v>
+        <v>0.9409798587489888</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8410113744841752</v>
+        <v>0.3059098532161642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7177401062240705</v>
+        <v>1.455976282027933</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1385205825298215</v>
+        <v>0.04783020800803683</v>
       </c>
       <c r="D8">
-        <v>0.06317205038340745</v>
+        <v>0.02265310304994017</v>
       </c>
       <c r="E8">
-        <v>0.1580623767627998</v>
+        <v>0.1052500700674486</v>
       </c>
       <c r="F8">
-        <v>0.3039501303853029</v>
+        <v>0.4446268059206275</v>
       </c>
       <c r="G8">
-        <v>0.2022782069783986</v>
+        <v>0.2902950113549565</v>
       </c>
       <c r="H8">
-        <v>0.1774241097321507</v>
+        <v>0.4640478473742178</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.510334503854892</v>
+        <v>1.133227879847993</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.021173183956471</v>
+        <v>0.3598941541545457</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.751133316475304</v>
+        <v>1.434200080156117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1878291097734888</v>
+        <v>0.06186381656110029</v>
       </c>
       <c r="D9">
-        <v>0.0826035302336976</v>
+        <v>0.02910168481030695</v>
       </c>
       <c r="E9">
-        <v>0.212803727388426</v>
+        <v>0.1145929958443261</v>
       </c>
       <c r="F9">
-        <v>0.366682281265696</v>
+        <v>0.4448451754501406</v>
       </c>
       <c r="G9">
-        <v>0.2444303406749953</v>
+        <v>0.2872736027031451</v>
       </c>
       <c r="H9">
-        <v>0.1801256538820084</v>
+        <v>0.4519918980135174</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.663761262341893</v>
+        <v>1.507159020275026</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.378912031674105</v>
+        <v>0.4658262518548639</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8471430777461393</v>
+        <v>1.40323384413459</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2248493005988763</v>
+        <v>0.07224084153885713</v>
       </c>
       <c r="D10">
-        <v>0.09689747320066999</v>
+        <v>0.03379793476456427</v>
       </c>
       <c r="E10">
-        <v>0.2570418022256646</v>
+        <v>0.1221751907550441</v>
       </c>
       <c r="F10">
-        <v>0.419791836405615</v>
+        <v>0.4472043449687817</v>
       </c>
       <c r="G10">
-        <v>0.2821987656682978</v>
+        <v>0.2869166850592819</v>
       </c>
       <c r="H10">
-        <v>0.1859886952510124</v>
+        <v>0.4447235213204692</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.514972319408912</v>
+        <v>1.779919698878075</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.646037616878601</v>
+        <v>0.543697373624866</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9401679767608755</v>
+        <v>1.387711108322208</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2419198243157581</v>
+        <v>0.07697652628792184</v>
       </c>
       <c r="D11">
-        <v>0.1034126646961653</v>
+        <v>0.03592499005702621</v>
       </c>
       <c r="E11">
-        <v>0.2782751590478796</v>
+        <v>0.1257853289219355</v>
       </c>
       <c r="F11">
-        <v>0.4457793039290578</v>
+        <v>0.4487597052179098</v>
       </c>
       <c r="G11">
-        <v>0.3011616760115459</v>
+        <v>0.2871647399685031</v>
       </c>
       <c r="H11">
-        <v>0.1896343793916628</v>
+        <v>0.441763484804369</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.903708549953762</v>
+        <v>1.903560113592903</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.76888099910056</v>
+        <v>0.5791329993371335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9883017934918144</v>
+        <v>1.382234645339508</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2484220940783501</v>
+        <v>0.07877199435897353</v>
       </c>
       <c r="D12">
-        <v>0.1058824063776314</v>
+        <v>0.03672907349348975</v>
       </c>
       <c r="E12">
-        <v>0.2864968884474237</v>
+        <v>0.1271759211881047</v>
       </c>
       <c r="F12">
-        <v>0.4559101865451467</v>
+        <v>0.4494183707301289</v>
       </c>
       <c r="G12">
-        <v>0.3086262767922676</v>
+        <v>0.2873181578497679</v>
       </c>
       <c r="H12">
-        <v>0.1911679986447297</v>
+        <v>0.4406925285644121</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.051190997936658</v>
+        <v>1.950314179475697</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.815624476194998</v>
+        <v>0.5925531113533964</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.007449674016982</v>
+        <v>1.380390015799264</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2470199390502188</v>
+        <v>0.07838521193345116</v>
       </c>
       <c r="D13">
-        <v>0.105350376068003</v>
+        <v>0.03655596218318635</v>
       </c>
       <c r="E13">
-        <v>0.2847177705294328</v>
+        <v>0.1268753807651279</v>
       </c>
       <c r="F13">
-        <v>0.4537149666111091</v>
+        <v>0.4492734105465246</v>
       </c>
       <c r="G13">
-        <v>0.30700555931449</v>
+        <v>0.2872824635405777</v>
       </c>
       <c r="H13">
-        <v>0.1908306906522199</v>
+        <v>0.4409209546625021</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.019414730373285</v>
+        <v>1.940247826331984</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.805546825124907</v>
+        <v>0.5896627916236667</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.003283475172537</v>
+        <v>1.380777076234864</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2424539778483989</v>
+        <v>0.07712419714138719</v>
       </c>
       <c r="D14">
-        <v>0.1036157956461778</v>
+        <v>0.03599117055264855</v>
       </c>
       <c r="E14">
-        <v>0.2789478047106044</v>
+        <v>0.1258992604874436</v>
       </c>
       <c r="F14">
-        <v>0.4466068025958663</v>
+        <v>0.4488124954508024</v>
       </c>
       <c r="G14">
-        <v>0.3017699407612469</v>
+        <v>0.2871761669156001</v>
       </c>
       <c r="H14">
-        <v>0.1897574089244074</v>
+        <v>0.4416743748348466</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.915836125137787</v>
+        <v>1.907407933968102</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.772721887419848</v>
+        <v>0.580237053291782</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9898581432923663</v>
+        <v>1.382078285969044</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2396623020378001</v>
+        <v>0.07635207114699938</v>
       </c>
       <c r="D15">
-        <v>0.1025536741473161</v>
+        <v>0.03564503736497215</v>
       </c>
       <c r="E15">
-        <v>0.2754377971617075</v>
+        <v>0.1253044313550404</v>
       </c>
       <c r="F15">
-        <v>0.44229145530322</v>
+        <v>0.4485392569554136</v>
       </c>
       <c r="G15">
-        <v>0.2986007812973241</v>
+        <v>0.2871188176809767</v>
       </c>
       <c r="H15">
-        <v>0.189120311865679</v>
+        <v>0.4421423748251101</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.852429068379536</v>
+        <v>1.887283894992947</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.752646092630599</v>
+        <v>0.5744636921273099</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.981757251030615</v>
+        <v>1.382905199479069</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2237387442033025</v>
+        <v>0.07193165707916194</v>
       </c>
       <c r="D16">
-        <v>0.09647200938778866</v>
+        <v>0.03365873542630027</v>
       </c>
       <c r="E16">
-        <v>0.2556782747948105</v>
+        <v>0.1219425298844428</v>
       </c>
       <c r="F16">
-        <v>0.4181325471078594</v>
+        <v>0.4471124308232532</v>
       </c>
       <c r="G16">
-        <v>0.2809976546397337</v>
+        <v>0.2869087727400768</v>
       </c>
       <c r="H16">
-        <v>0.1857711669547086</v>
+        <v>0.4449239484150382</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.489602879516326</v>
+        <v>1.771830431433614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.638039094849532</v>
+        <v>0.5413817838433914</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9371464110157603</v>
+        <v>1.388101010010359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2140324553703152</v>
+        <v>0.06922374442109458</v>
       </c>
       <c r="D17">
-        <v>0.09274488914012835</v>
+        <v>0.03243778779874162</v>
       </c>
       <c r="E17">
-        <v>0.2438553019933209</v>
+        <v>0.1199215977134998</v>
       </c>
       <c r="F17">
-        <v>0.4037986330382211</v>
+        <v>0.44636086223219</v>
       </c>
       <c r="G17">
-        <v>0.2706739994363261</v>
+        <v>0.2868853680586838</v>
       </c>
       <c r="H17">
-        <v>0.183975700364428</v>
+        <v>0.4467191677336757</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.267449045479168</v>
+        <v>1.700888946782072</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.568094847373118</v>
+        <v>0.521089899662357</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9113267046599276</v>
+        <v>1.391695316886683</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2084709700299499</v>
+        <v>0.06766764871424868</v>
       </c>
       <c r="D18">
-        <v>0.09060230525664537</v>
+        <v>0.03173465933524255</v>
       </c>
       <c r="E18">
-        <v>0.2371580393006667</v>
+        <v>0.1187743393839469</v>
       </c>
       <c r="F18">
-        <v>0.3957244266763098</v>
+        <v>0.445973942456483</v>
       </c>
       <c r="G18">
-        <v>0.2649020522612417</v>
+        <v>0.2869105090387478</v>
       </c>
       <c r="H18">
-        <v>0.1830343063171114</v>
+        <v>0.4477843256563006</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.139810932724629</v>
+        <v>1.660044041992023</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.527987386961584</v>
+        <v>0.5094196579132273</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8970179299593042</v>
+        <v>1.393911769883431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2065914618562772</v>
+        <v>0.06714102625613805</v>
       </c>
       <c r="D19">
-        <v>0.08987704049307865</v>
+        <v>0.03149644393731421</v>
       </c>
       <c r="E19">
-        <v>0.2349075252318684</v>
+        <v>0.1183884846170287</v>
       </c>
       <c r="F19">
-        <v>0.393019090952528</v>
+        <v>0.4458507184405534</v>
       </c>
       <c r="G19">
-        <v>0.2629754676361742</v>
+        <v>0.2869256371322351</v>
       </c>
       <c r="H19">
-        <v>0.1827308882150547</v>
+        <v>0.4481505639561973</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.096617018845961</v>
+        <v>1.646207656965203</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.514427745839257</v>
+        <v>0.5054685140228088</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8922638593386125</v>
+        <v>1.394687792237065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2150634654472157</v>
+        <v>0.06951185901989732</v>
       </c>
       <c r="D20">
-        <v>0.0931415225618295</v>
+        <v>0.03256785033791232</v>
       </c>
       <c r="E20">
-        <v>0.2451030675135186</v>
+        <v>0.1201351610155754</v>
       </c>
       <c r="F20">
-        <v>0.4053066889301888</v>
+        <v>0.4464361705900046</v>
       </c>
       <c r="G20">
-        <v>0.2717556028118366</v>
+        <v>0.2868838608979303</v>
       </c>
       <c r="H20">
-        <v>0.1841572940660541</v>
+        <v>0.4465246891008192</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.291082917996846</v>
+        <v>1.708445076212797</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.575527600329934</v>
+        <v>0.5232498921043458</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9140185682848312</v>
+        <v>1.391297255914225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2437940375561851</v>
+        <v>0.07749452900496578</v>
       </c>
       <c r="D21">
-        <v>0.1041252077116752</v>
+        <v>0.03615710156400098</v>
       </c>
       <c r="E21">
-        <v>0.2806374856336475</v>
+        <v>0.1261853296689068</v>
       </c>
       <c r="F21">
-        <v>0.4486865451806779</v>
+        <v>0.4489459833954044</v>
       </c>
       <c r="G21">
-        <v>0.3032998374177822</v>
+        <v>0.2872057706956639</v>
       </c>
       <c r="H21">
-        <v>0.1900683998545105</v>
+        <v>0.4414517204846362</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.946251676777081</v>
+        <v>1.917055615108382</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.782356960101765</v>
+        <v>0.5830055849719571</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9937757975105228</v>
+        <v>1.381689858848347</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2627954022466099</v>
+        <v>0.08272429259136516</v>
       </c>
       <c r="D22">
-        <v>0.1113191126752611</v>
+        <v>0.03849478176951493</v>
       </c>
       <c r="E22">
-        <v>0.3049285229530412</v>
+        <v>0.1302766765188679</v>
       </c>
       <c r="F22">
-        <v>0.4787422710674178</v>
+        <v>0.4509926257408949</v>
       </c>
       <c r="G22">
-        <v>0.3255841747495793</v>
+        <v>0.287763096096441</v>
       </c>
       <c r="H22">
-        <v>0.1948303712316601</v>
+        <v>0.4384274246993556</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.376084821384495</v>
+        <v>2.053009485300038</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.918863792359517</v>
+        <v>0.6220674804780089</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.051312078012529</v>
+        <v>1.376747344056298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2526317490014378</v>
+        <v>0.07993191659780052</v>
       </c>
       <c r="D23">
-        <v>0.1074779159168315</v>
+        <v>0.03724787567604437</v>
       </c>
       <c r="E23">
-        <v>0.2918586000110324</v>
+        <v>0.1280803718771892</v>
       </c>
       <c r="F23">
-        <v>0.4625354586965855</v>
+        <v>0.4498629994698575</v>
       </c>
       <c r="G23">
-        <v>0.3135282699300461</v>
+        <v>0.2874337422799158</v>
       </c>
       <c r="H23">
-        <v>0.192202236507498</v>
+        <v>0.4400148603112939</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.146503785925859</v>
+        <v>1.980484452676876</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.845873401535812</v>
+        <v>0.6012187579339496</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.020079204338145</v>
+        <v>1.379262547931802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2145972876383837</v>
+        <v>0.06938160016970585</v>
       </c>
       <c r="D24">
-        <v>0.09296220406388045</v>
+        <v>0.03250905276507865</v>
       </c>
       <c r="E24">
-        <v>0.2445386430962913</v>
+        <v>0.1200385635906542</v>
       </c>
       <c r="F24">
-        <v>0.4046243801192162</v>
+        <v>0.4464019830151997</v>
       </c>
       <c r="G24">
-        <v>0.2712661034632333</v>
+        <v>0.2868844220943245</v>
       </c>
       <c r="H24">
-        <v>0.1840749135188986</v>
+        <v>0.4466125099116596</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.280397796023635</v>
+        <v>1.705029135862731</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.572166930052475</v>
+        <v>0.5222733724871631</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9127999156336841</v>
+        <v>1.391476752013034</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1743686796579027</v>
+        <v>0.05805580429729673</v>
       </c>
       <c r="D25">
-        <v>0.07734641989937785</v>
+        <v>0.02736432717053106</v>
       </c>
       <c r="E25">
-        <v>0.1973631199961901</v>
+        <v>0.1119410409154469</v>
       </c>
       <c r="F25">
-        <v>0.3485751736987623</v>
+        <v>0.4444015346785477</v>
       </c>
       <c r="G25">
-        <v>0.2319302015494529</v>
+        <v>0.2877658093292581</v>
       </c>
       <c r="H25">
-        <v>0.1787572194631366</v>
+        <v>0.4549747754221656</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.351275889927024</v>
+        <v>1.406339192323969</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.281502559146958</v>
+        <v>0.4371613667730117</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8175180744081416</v>
+        <v>1.41034695273207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_87/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04976167759201644</v>
+        <v>0.1452609675838232</v>
       </c>
       <c r="D2">
-        <v>0.02354875200813211</v>
+        <v>0.06585770204325314</v>
       </c>
       <c r="E2">
-        <v>0.1064597284362492</v>
+        <v>0.1652392103406513</v>
       </c>
       <c r="F2">
-        <v>0.4444044161742013</v>
+        <v>0.311907923152404</v>
       </c>
       <c r="G2">
-        <v>0.2896642802316904</v>
+        <v>0.2074187305155704</v>
       </c>
       <c r="H2">
-        <v>0.4621988561487242</v>
+        <v>0.1773948207008189</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.185113622351707</v>
+        <v>3.669488147537834</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3745258566448868</v>
+        <v>1.070234148630085</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.429091374701287</v>
+        <v>0.7621124553515557</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04416796813832491</v>
+        <v>0.1257753370021959</v>
       </c>
       <c r="D3">
-        <v>0.02094628914163366</v>
+        <v>0.05806563978664769</v>
       </c>
       <c r="E3">
-        <v>0.1030373694395337</v>
+        <v>0.1447809526740826</v>
       </c>
       <c r="F3">
-        <v>0.4453197449422888</v>
+        <v>0.2895126482876691</v>
       </c>
       <c r="G3">
-        <v>0.2917212057711183</v>
+        <v>0.1931655082277643</v>
       </c>
       <c r="H3">
-        <v>0.4677580831142123</v>
+        <v>0.1778771314031076</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.034403058535588</v>
+        <v>3.207965768436509</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3320957871796466</v>
+        <v>0.9282422388873357</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.444796239223365</v>
+        <v>0.7324858695471761</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04074669862028202</v>
+        <v>0.1139060607891622</v>
       </c>
       <c r="D4">
-        <v>0.01934040412479732</v>
+        <v>0.05327490848293337</v>
       </c>
       <c r="E4">
-        <v>0.1010777977424908</v>
+        <v>0.1327721013988103</v>
       </c>
       <c r="F4">
-        <v>0.446329959083954</v>
+        <v>0.2768456157306503</v>
       </c>
       <c r="G4">
-        <v>0.2933611242527974</v>
+        <v>0.1854497333935257</v>
       </c>
       <c r="H4">
-        <v>0.471497971049935</v>
+        <v>0.1788095867124184</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9414913515508374</v>
+        <v>2.924583528666773</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3060529549820217</v>
+        <v>0.8414873170004569</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.455911708282727</v>
+        <v>0.717812843371334</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03935584826531624</v>
+        <v>0.1090898483421086</v>
       </c>
       <c r="D5">
-        <v>0.01868403836257215</v>
+        <v>0.05132061508600572</v>
       </c>
       <c r="E5">
-        <v>0.1003145679918411</v>
+        <v>0.128004274091591</v>
       </c>
       <c r="F5">
-        <v>0.4468540151482401</v>
+        <v>0.2719384728624306</v>
       </c>
       <c r="G5">
-        <v>0.2941237627368096</v>
+        <v>0.1825480867911011</v>
       </c>
       <c r="H5">
-        <v>0.4731039981795462</v>
+        <v>0.1793415776831822</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9035373628456966</v>
+        <v>2.809066757606985</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2954429059795203</v>
+        <v>0.8062206578854685</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.460810506897573</v>
+        <v>0.7126634295211716</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03912510072476039</v>
+        <v>0.1082912726253085</v>
       </c>
       <c r="D6">
-        <v>0.01857493268487787</v>
+        <v>0.05099597160678115</v>
       </c>
       <c r="E6">
-        <v>0.1001899571268901</v>
+        <v>0.1272198155595028</v>
       </c>
       <c r="F6">
-        <v>0.4469478127425859</v>
+        <v>0.2711385315267094</v>
       </c>
       <c r="G6">
-        <v>0.2942560846409634</v>
+        <v>0.1820804179417621</v>
       </c>
       <c r="H6">
-        <v>0.4733756267139455</v>
+        <v>0.1794388692004176</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.897229667827105</v>
+        <v>2.789882132357775</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2936812810339191</v>
+        <v>0.8003692994807921</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.461646211027173</v>
+        <v>0.7118569571163249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04072792757982313</v>
+        <v>0.1138410283961377</v>
       </c>
       <c r="D7">
-        <v>0.01933155999722658</v>
+        <v>0.05324856096554242</v>
       </c>
       <c r="E7">
-        <v>0.1010673620303848</v>
+        <v>0.1327073078396488</v>
       </c>
       <c r="F7">
-        <v>0.4463365720650572</v>
+        <v>0.2767784275058034</v>
       </c>
       <c r="G7">
-        <v>0.2933710279812658</v>
+        <v>0.185409641448814</v>
       </c>
       <c r="H7">
-        <v>0.4715192986547478</v>
+        <v>0.1788161561241992</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9409798587489888</v>
+        <v>2.923025819781742</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3059098532161642</v>
+        <v>0.8410113744841681</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.455976282027933</v>
+        <v>0.7177401062240563</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04783020800803683</v>
+        <v>0.138520582529793</v>
       </c>
       <c r="D8">
-        <v>0.02265310304994017</v>
+        <v>0.06317205038323692</v>
       </c>
       <c r="E8">
-        <v>0.1052500700674486</v>
+        <v>0.1580623767628211</v>
       </c>
       <c r="F8">
-        <v>0.4446268059206275</v>
+        <v>0.3039501303853243</v>
       </c>
       <c r="G8">
-        <v>0.2902950113549565</v>
+        <v>0.2022782069783489</v>
       </c>
       <c r="H8">
-        <v>0.4640478473742178</v>
+        <v>0.1774241097320512</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.133227879847993</v>
+        <v>3.510334503854892</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3598941541545457</v>
+        <v>1.021173183956471</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.434200080156117</v>
+        <v>0.751133316475304</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06186381656110029</v>
+        <v>0.1878291097734319</v>
       </c>
       <c r="D9">
-        <v>0.02910168481030695</v>
+        <v>0.08260353023353417</v>
       </c>
       <c r="E9">
-        <v>0.1145929958443261</v>
+        <v>0.2128037273884118</v>
       </c>
       <c r="F9">
-        <v>0.4448451754501406</v>
+        <v>0.3666822812656818</v>
       </c>
       <c r="G9">
-        <v>0.2872736027031451</v>
+        <v>0.244430340675045</v>
       </c>
       <c r="H9">
-        <v>0.4519918980135174</v>
+        <v>0.1801256538820084</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.507159020275026</v>
+        <v>4.663761262341723</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4658262518548639</v>
+        <v>1.378912031674133</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.40323384413459</v>
+        <v>0.8471430777461819</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07224084153885713</v>
+        <v>0.2248493005988763</v>
       </c>
       <c r="D10">
-        <v>0.03379793476456427</v>
+        <v>0.09689747320051367</v>
       </c>
       <c r="E10">
-        <v>0.1221751907550441</v>
+        <v>0.2570418022256575</v>
       </c>
       <c r="F10">
-        <v>0.4472043449687817</v>
+        <v>0.4197918364056079</v>
       </c>
       <c r="G10">
-        <v>0.2869166850592819</v>
+        <v>0.2821987656682978</v>
       </c>
       <c r="H10">
-        <v>0.4447235213204692</v>
+        <v>0.1859886952509981</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.779919698878075</v>
+        <v>5.514972319408912</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.543697373624866</v>
+        <v>1.646037616878601</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.387711108322208</v>
+        <v>0.9401679767608755</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07697652628792184</v>
+        <v>0.2419198243158434</v>
       </c>
       <c r="D11">
-        <v>0.03592499005702621</v>
+        <v>0.103412664696279</v>
       </c>
       <c r="E11">
-        <v>0.1257853289219355</v>
+        <v>0.2782751590478725</v>
       </c>
       <c r="F11">
-        <v>0.4487597052179098</v>
+        <v>0.4457793039290792</v>
       </c>
       <c r="G11">
-        <v>0.2871647399685031</v>
+        <v>0.3011616760115459</v>
       </c>
       <c r="H11">
-        <v>0.441763484804369</v>
+        <v>0.1896343793916628</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.903560113592903</v>
+        <v>5.903708549953706</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5791329993371335</v>
+        <v>1.768880999100574</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.382234645339508</v>
+        <v>0.9883017934917575</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07877199435897353</v>
+        <v>0.2484220940784638</v>
       </c>
       <c r="D12">
-        <v>0.03672907349348975</v>
+        <v>0.1058824063777308</v>
       </c>
       <c r="E12">
-        <v>0.1271759211881047</v>
+        <v>0.2864968884474379</v>
       </c>
       <c r="F12">
-        <v>0.4494183707301289</v>
+        <v>0.4559101865451538</v>
       </c>
       <c r="G12">
-        <v>0.2873181578497679</v>
+        <v>0.3086262767922676</v>
       </c>
       <c r="H12">
-        <v>0.4406925285644121</v>
+        <v>0.1911679986447297</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.950314179475697</v>
+        <v>6.051190997936772</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5925531113533964</v>
+        <v>1.815624476194998</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.380390015799264</v>
+        <v>1.007449674017039</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07838521193345116</v>
+        <v>0.247019939050432</v>
       </c>
       <c r="D13">
-        <v>0.03655596218318635</v>
+        <v>0.1053503760678467</v>
       </c>
       <c r="E13">
-        <v>0.1268753807651279</v>
+        <v>0.2847177705294754</v>
       </c>
       <c r="F13">
-        <v>0.4492734105465246</v>
+        <v>0.4537149666111375</v>
       </c>
       <c r="G13">
-        <v>0.2872824635405777</v>
+        <v>0.3070055593144758</v>
       </c>
       <c r="H13">
-        <v>0.4409209546625021</v>
+        <v>0.1908306906522199</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.940247826331984</v>
+        <v>6.019414730373171</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5896627916236667</v>
+        <v>1.805546825124935</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.380777076234864</v>
+        <v>1.003283475172509</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07712419714138719</v>
+        <v>0.2424539778483137</v>
       </c>
       <c r="D14">
-        <v>0.03599117055264855</v>
+        <v>0.1036157956460215</v>
       </c>
       <c r="E14">
-        <v>0.1258992604874436</v>
+        <v>0.2789478047106186</v>
       </c>
       <c r="F14">
-        <v>0.4488124954508024</v>
+        <v>0.4466068025958663</v>
       </c>
       <c r="G14">
-        <v>0.2871761669156001</v>
+        <v>0.3017699407613179</v>
       </c>
       <c r="H14">
-        <v>0.4416743748348466</v>
+        <v>0.1897574089245211</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.907407933968102</v>
+        <v>5.915836125137844</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.580237053291782</v>
+        <v>1.772721887419863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.382078285969044</v>
+        <v>0.9898581432923663</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07635207114699938</v>
+        <v>0.2396623020378854</v>
       </c>
       <c r="D15">
-        <v>0.03564503736497215</v>
+        <v>0.1025536741472877</v>
       </c>
       <c r="E15">
-        <v>0.1253044313550404</v>
+        <v>0.2754377971617004</v>
       </c>
       <c r="F15">
-        <v>0.4485392569554136</v>
+        <v>0.4422914553032484</v>
       </c>
       <c r="G15">
-        <v>0.2871188176809767</v>
+        <v>0.2986007812972531</v>
       </c>
       <c r="H15">
-        <v>0.4421423748251101</v>
+        <v>0.1891203118657927</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.887283894992947</v>
+        <v>5.852429068379593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5744636921273099</v>
+        <v>1.752646092630584</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.382905199479069</v>
+        <v>0.9817572510306434</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07193165707916194</v>
+        <v>0.2237387442033025</v>
       </c>
       <c r="D16">
-        <v>0.03365873542630027</v>
+        <v>0.09647200938765366</v>
       </c>
       <c r="E16">
-        <v>0.1219425298844428</v>
+        <v>0.2556782747948247</v>
       </c>
       <c r="F16">
-        <v>0.4471124308232532</v>
+        <v>0.418132547107831</v>
       </c>
       <c r="G16">
-        <v>0.2869087727400768</v>
+        <v>0.2809976546396911</v>
       </c>
       <c r="H16">
-        <v>0.4449239484150382</v>
+        <v>0.1857711669546944</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.771830431433614</v>
+        <v>5.489602879516383</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5413817838433914</v>
+        <v>1.638039094849518</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.388101010010359</v>
+        <v>0.9371464110157603</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06922374442109458</v>
+        <v>0.2140324553707273</v>
       </c>
       <c r="D17">
-        <v>0.03243778779874162</v>
+        <v>0.09274488914012124</v>
       </c>
       <c r="E17">
-        <v>0.1199215977134998</v>
+        <v>0.2438553019933138</v>
       </c>
       <c r="F17">
-        <v>0.44636086223219</v>
+        <v>0.4037986330382282</v>
       </c>
       <c r="G17">
-        <v>0.2868853680586838</v>
+        <v>0.2706739994362835</v>
       </c>
       <c r="H17">
-        <v>0.4467191677336757</v>
+        <v>0.1839757003643143</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.700888946782072</v>
+        <v>5.267449045479168</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.521089899662357</v>
+        <v>1.568094847373089</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.391695316886683</v>
+        <v>0.9113267046598708</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06766764871424868</v>
+        <v>0.2084709700299641</v>
       </c>
       <c r="D18">
-        <v>0.03173465933524255</v>
+        <v>0.09060230525648905</v>
       </c>
       <c r="E18">
-        <v>0.1187743393839469</v>
+        <v>0.2371580393006738</v>
       </c>
       <c r="F18">
-        <v>0.445973942456483</v>
+        <v>0.3957244266763098</v>
       </c>
       <c r="G18">
-        <v>0.2869105090387478</v>
+        <v>0.2649020522612915</v>
       </c>
       <c r="H18">
-        <v>0.4477843256563006</v>
+        <v>0.1830343063171114</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.660044041992023</v>
+        <v>5.139810932724401</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5094196579132273</v>
+        <v>1.527987386961556</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.393911769883431</v>
+        <v>0.8970179299593042</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06714102625613805</v>
+        <v>0.2065914618562914</v>
       </c>
       <c r="D19">
-        <v>0.03149644393731421</v>
+        <v>0.08987704049319234</v>
       </c>
       <c r="E19">
-        <v>0.1183884846170287</v>
+        <v>0.2349075252318542</v>
       </c>
       <c r="F19">
-        <v>0.4458507184405534</v>
+        <v>0.3930190909525137</v>
       </c>
       <c r="G19">
-        <v>0.2869256371322351</v>
+        <v>0.2629754676362381</v>
       </c>
       <c r="H19">
-        <v>0.4481505639561973</v>
+        <v>0.1827308882150547</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.646207656965203</v>
+        <v>5.096617018845961</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5054685140228088</v>
+        <v>1.514427745839242</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.394687792237065</v>
+        <v>0.8922638593386125</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06951185901989732</v>
+        <v>0.2150634654471446</v>
       </c>
       <c r="D20">
-        <v>0.03256785033791232</v>
+        <v>0.09314152256194319</v>
       </c>
       <c r="E20">
-        <v>0.1201351610155754</v>
+        <v>0.2451030675135115</v>
       </c>
       <c r="F20">
-        <v>0.4464361705900046</v>
+        <v>0.4053066889301746</v>
       </c>
       <c r="G20">
-        <v>0.2868838608979303</v>
+        <v>0.2717556028118366</v>
       </c>
       <c r="H20">
-        <v>0.4465246891008192</v>
+        <v>0.1841572940660541</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.708445076212797</v>
+        <v>5.291082917996789</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5232498921043458</v>
+        <v>1.575527600329934</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.391297255914225</v>
+        <v>0.9140185682848312</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07749452900496578</v>
+        <v>0.2437940375561993</v>
       </c>
       <c r="D21">
-        <v>0.03615710156400098</v>
+        <v>0.1041252077115473</v>
       </c>
       <c r="E21">
-        <v>0.1261853296689068</v>
+        <v>0.2806374856336689</v>
       </c>
       <c r="F21">
-        <v>0.4489459833954044</v>
+        <v>0.4486865451806565</v>
       </c>
       <c r="G21">
-        <v>0.2872057706956639</v>
+        <v>0.3032998374178391</v>
       </c>
       <c r="H21">
-        <v>0.4414517204846362</v>
+        <v>0.19006839985461</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.917055615108382</v>
+        <v>5.946251676777194</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5830055849719571</v>
+        <v>1.782356960101765</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.381689858848347</v>
+        <v>0.993775797510466</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08272429259136516</v>
+        <v>0.2627954022465957</v>
       </c>
       <c r="D22">
-        <v>0.03849478176951493</v>
+        <v>0.1113191126755311</v>
       </c>
       <c r="E22">
-        <v>0.1302766765188679</v>
+        <v>0.3049285229530341</v>
       </c>
       <c r="F22">
-        <v>0.4509926257408949</v>
+        <v>0.4787422710674107</v>
       </c>
       <c r="G22">
-        <v>0.287763096096441</v>
+        <v>0.3255841747495367</v>
       </c>
       <c r="H22">
-        <v>0.4384274246993556</v>
+        <v>0.1948303712316743</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.053009485300038</v>
+        <v>6.376084821384552</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6220674804780089</v>
+        <v>1.918863792359531</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.376747344056298</v>
+        <v>1.051312078012614</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07993191659780052</v>
+        <v>0.2526317490015373</v>
       </c>
       <c r="D23">
-        <v>0.03724787567604437</v>
+        <v>0.1074779159167178</v>
       </c>
       <c r="E23">
-        <v>0.1280803718771892</v>
+        <v>0.2918586000110324</v>
       </c>
       <c r="F23">
-        <v>0.4498629994698575</v>
+        <v>0.4625354586965784</v>
       </c>
       <c r="G23">
-        <v>0.2874337422799158</v>
+        <v>0.3135282699300461</v>
       </c>
       <c r="H23">
-        <v>0.4400148603112939</v>
+        <v>0.1922022365076117</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.980484452676876</v>
+        <v>6.146503785925859</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6012187579339496</v>
+        <v>1.845873401535798</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.379262547931802</v>
+        <v>1.020079204338145</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06938160016970585</v>
+        <v>0.2145972876385542</v>
       </c>
       <c r="D24">
-        <v>0.03250905276507865</v>
+        <v>0.09296220406376676</v>
       </c>
       <c r="E24">
-        <v>0.1200385635906542</v>
+        <v>0.2445386430962913</v>
       </c>
       <c r="F24">
-        <v>0.4464019830151997</v>
+        <v>0.4046243801192162</v>
       </c>
       <c r="G24">
-        <v>0.2868844220943245</v>
+        <v>0.2712661034632333</v>
       </c>
       <c r="H24">
-        <v>0.4466125099116596</v>
+        <v>0.1840749135188844</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.705029135862731</v>
+        <v>5.280397796023635</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5222733724871631</v>
+        <v>1.572166930052489</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.391476752013034</v>
+        <v>0.9127999156336841</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05805580429729673</v>
+        <v>0.1743686796578885</v>
       </c>
       <c r="D25">
-        <v>0.02736432717053106</v>
+        <v>0.07734641989949154</v>
       </c>
       <c r="E25">
-        <v>0.1119410409154469</v>
+        <v>0.1973631199961972</v>
       </c>
       <c r="F25">
-        <v>0.4444015346785477</v>
+        <v>0.3485751736987481</v>
       </c>
       <c r="G25">
-        <v>0.2877658093292581</v>
+        <v>0.2319302015494173</v>
       </c>
       <c r="H25">
-        <v>0.4549747754221656</v>
+        <v>0.1787572194632574</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.406339192323969</v>
+        <v>4.351275889927081</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4371613667730117</v>
+        <v>1.281502559146958</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.41034695273207</v>
+        <v>0.8175180744081842</v>
       </c>
     </row>
   </sheetData>
